--- a/TestResults/GeoRltspTypeGet.xlsx
+++ b/TestResults/GeoRltspTypeGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -90,18 +90,9 @@
   <si>
     <t xml:space="preserve">Response_relationshipTypeCode: CS
 DB_relationshipTypeCode: CS
-Response_areaRelationshipTypeDesc: Country to State Rltsp1
-DB_areaRelationshipTypeDesc: Country to State Rltsp1
+Response_areaRelationshipTypeDesc: Country to State
+DB_areaRelationshipTypeDesc: Country to State
 </t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify that the Geopolitical Type service is successfully retrieving the Geopolitical relationship type details when relationshipTypeCode is passed in URI</t>
-  </si>
-  <si>
-    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
 </sst>
 </file>
@@ -109,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="68">
+  <fonts count="46">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -122,116 +113,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -520,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -655,72 +536,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -927,78 +742,6 @@
       </c>
       <c r="L5"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="46">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="47">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s" s="48">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="49">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="50">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="51">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="52">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="53">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="54">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s" s="55">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s" s="56">
-        <v>25</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="57">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="58">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="59">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="60">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="61">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="62">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="63">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="64">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="65">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s" s="66">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s" s="67">
-        <v>15</v>
-      </c>
-      <c r="L7"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
